--- a/file/HutangPerPelanggan.xlsx
+++ b/file/HutangPerPelanggan.xlsx
@@ -360,31 +360,18 @@
         <v>Uang Keluar</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6">
+    <row r="5">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B6" t="str">
-        <v>2020-01-01T00:00:00Z</v>
-      </c>
-      <c r="C6" t="str"/>
-      <c r="D6" t="str">
+      <c r="B5" t="str">
+        <v>2020-07-08T00:00:00Z</v>
+      </c>
+      <c r="C5" t="str"/>
+      <c r="D5" t="str">
         <v>-</v>
       </c>
-      <c r="E6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="C8" t="str">
-        <v>Total</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="E5">
         <v>5000</v>
       </c>
     </row>
